--- a/test/mock/excel_mock.xlsx
+++ b/test/mock/excel_mock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\wprdc\wprdc-etl\test\mock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\wprdc-etl\test\mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>One</t>
   </si>
@@ -32,28 +32,22 @@
     <t>Two</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>Three Things</t>
   </si>
   <si>
     <t xml:space="preserve">Trailing spaces   </t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +363,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -392,10 +387,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42370</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -406,10 +401,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42370</v>
       </c>
       <c r="D3">
         <v>456</v>
